--- a/municipal/ENG/Social Statistic/Socially Vulnerable/Kakheti/Dedoplistskaro.xlsx
+++ b/municipal/ENG/Social Statistic/Socially Vulnerable/Kakheti/Dedoplistskaro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\ENG\Social Statistic\Socially Vulnerable\Kakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Socially Vulnerable\Kakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5C69D-3D36-44E0-A084-C56F02A760B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Dedoplistsqaro" sheetId="1" r:id="rId1"/>
@@ -53,13 +52,13 @@
     </r>
   </si>
   <si>
-    <t>Share of persons receiving social package (%) in the population in Dedoplistskaro</t>
+    <t>Share of persons receiving social package (%) in the population in Dedoplistskaro municipality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -190,22 +189,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -215,14 +215,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal_01_IANVARI" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal_01_IANVARI" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -703,27 +703,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3">
         <v>2012</v>
       </c>
@@ -755,68 +755,68 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>3.6551249713368494</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>3.7167976927013071</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>3.7474884351198541</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>3.7526352775825722</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>3.7064981608978589</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>3.7021216004556456</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>3.7111429937828788</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>3.9163736210800133</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>3.9851042220825073</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>3.9872329977903265</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
